--- a/templates/4COM04_GenomeAssembly/4COM04_GenomeAssembly.xlsx
+++ b/templates/4COM04_GenomeAssembly/4COM04_GenomeAssembly.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/Google Drive/CEPLAS/DataManagementPlans/SWATE_templates/templates/4COM04_GenomeAssembly/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0170423-4592-F249-8454-BD4991770AE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E1C00FD-4DCB-B54B-8901-4EF44AE16965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-4680" yWindow="-21100" windowWidth="38360" windowHeight="21100" xr2:uid="{9EEB2079-C266-4F1B-B120-9813692A2E4B}"/>
   </bookViews>
@@ -979,7 +979,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3F01384-B3A2-4F2D-B55D-8EA1341B1463}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AW30"/>
+  <dimension ref="A1:AT30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
       <selection activeCell="AR23" sqref="AR23"/>
@@ -2665,4 +2665,35 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<customXml>
+  <SwateTable Table="annotationTable" Worksheet="4COM04_GenomeAssembly">
+    <TableValidation DateTime="2021-06-09 14:32" SwateVersion="0.4.7" TableName="annotationTable" Userlist="" WorksheetName="4COM04_GenomeAssembly">
+      <ColumnValidation ColumnAdress="0" ColumnHeader="Source Name" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="1" ColumnHeader="Sample Name" Importance="5" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="2" ColumnHeader="Parameter [BioSample Accession Number]" Importance="4" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="5" ColumnHeader="Parameter [Data filtering software]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="8" ColumnHeader="Parameter [Data filtering software version]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="11" ColumnHeader="Parameter [Data filtering Software Parameters]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="14" ColumnHeader="Parameter [Next generation sequencing instrument model]" Importance="5" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="17" ColumnHeader="Parameter [sequence assembly algorithm]" Importance="5" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="20" ColumnHeader="Parameter [Sequence assembly algorithm version]" Importance="4" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="23" ColumnHeader="Parameter [sequence assembly name]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="26" ColumnHeader="Parameter [genome coverage]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="29" ColumnHeader="Parameter [Genome status]" Importance="3" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="32" ColumnHeader="Parameter [Genome reference sequence]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="35" ColumnHeader="Parameter [Processed data file name]" Importance="5" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="38" ColumnHeader="Parameter [Processed data file format]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="41" ColumnHeader="Parameter [Processed data file checksum]" Importance="None" Unit="None" ValidationFormat="None"/>
+    </TableValidation>
+  </SwateTable>
+</customXml>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4DF26A5-A329-8145-A848-AC0BB93BE70D}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
 </file>
--- a/templates/4COM04_GenomeAssembly/4COM04_GenomeAssembly.xlsx
+++ b/templates/4COM04_GenomeAssembly/4COM04_GenomeAssembly.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/Google Drive/CEPLAS/MetadataTemplates/SWATE_templates/templates/4COM04_GenomeAssembly/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\nfdi4plants\SWATE_templates\templates\4COM04_GenomeAssembly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9712690B-E717-0242-A9EF-170745CAF89E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A23E5C00-11DA-4120-9B58-01F1E2429211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4680" yWindow="-21100" windowWidth="38360" windowHeight="21100" xr2:uid="{9EEB2079-C266-4F1B-B120-9813692A2E4B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9EEB2079-C266-4F1B-B120-9813692A2E4B}"/>
   </bookViews>
   <sheets>
     <sheet name="4COM04_GenomeAssembly" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="107">
   <si>
     <t>Source Name</t>
   </si>
@@ -336,6 +345,24 @@
   <si>
     <t>Comments towards the original template author</t>
   </si>
+  <si>
+    <t>The name of the input (the source) of this assay.</t>
+  </si>
+  <si>
+    <t>The name of the data file of this sample.</t>
+  </si>
+  <si>
+    <t>The version of the Data filtering software used.</t>
+  </si>
+  <si>
+    <t>The name of the Processed data file of this sample.</t>
+  </si>
+  <si>
+    <t>User instruction, Term &amp; TAN missing</t>
+  </si>
+  <si>
+    <t>Term &amp; TAN missing</t>
+  </si>
 </sst>
 </file>
 
@@ -413,7 +440,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -453,6 +480,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,7 +532,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -600,10 +633,20 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 3" xfId="1" xr:uid="{8FDA171C-9A9B-E446-9A4B-C7BD813E93C7}"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -679,7 +722,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -997,62 +1040,65 @@
   <dimension ref="A1:XFB31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <pane xSplit="3" ySplit="22" topLeftCell="D23" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
+      <selection pane="bottomRight" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.6640625" style="14" customWidth="1"/>
-    <col min="2" max="2" width="35.83203125" style="14" customWidth="1"/>
-    <col min="3" max="3" width="43.1640625" style="14" customWidth="1"/>
-    <col min="4" max="4" width="13.83203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="50.1640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.5" style="14" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="35.85546875" style="14" customWidth="1"/>
+    <col min="3" max="3" width="43.140625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.42578125" style="14" customWidth="1"/>
     <col min="7" max="7" width="63" style="14" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="69.1640625" style="14" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="69.140625" style="14" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="31" style="14" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="57" style="14" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="63.1640625" style="14" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="37.1640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="63.1640625" style="14" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="69.33203125" style="14" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="40.6640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="66.6640625" style="14" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="72.83203125" style="14" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="50.6640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="76.6640625" style="14" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="82.83203125" style="14" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="41.83203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="57.6640625" style="14" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="63.83203125" style="14" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="43.1640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="69.1640625" style="14" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="75.33203125" style="14" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="32.6640625" style="14" customWidth="1"/>
-    <col min="28" max="28" width="54.33203125" style="14" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="60.6640625" style="14" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="27.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="48.33203125" style="14" hidden="1" customWidth="1"/>
-    <col min="32" max="32" width="54.5" style="14" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="25.33203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="51.33203125" style="14" hidden="1" customWidth="1"/>
-    <col min="35" max="35" width="57.5" style="14" hidden="1" customWidth="1"/>
-    <col min="36" max="36" width="36.6640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="62.6640625" style="14" hidden="1" customWidth="1"/>
-    <col min="38" max="38" width="68.83203125" style="14" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="63.140625" style="14" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="37.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="63.140625" style="14" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="69.28515625" style="14" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="40.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="66.7109375" style="14" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="72.85546875" style="14" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="50.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="76.7109375" style="14" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="82.85546875" style="14" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="41.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="57.7109375" style="14" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="63.85546875" style="14" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="43.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="69.140625" style="14" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="75.28515625" style="14" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="32.7109375" style="14" customWidth="1"/>
+    <col min="28" max="28" width="54.28515625" style="14" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="60.7109375" style="14" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="27.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="48.28515625" style="14" hidden="1" customWidth="1"/>
+    <col min="32" max="32" width="54.42578125" style="14" hidden="1" customWidth="1"/>
+    <col min="33" max="33" width="25.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="51.28515625" style="14" hidden="1" customWidth="1"/>
+    <col min="35" max="35" width="57.42578125" style="14" hidden="1" customWidth="1"/>
+    <col min="36" max="36" width="36.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="62.7109375" style="14" hidden="1" customWidth="1"/>
+    <col min="38" max="38" width="68.85546875" style="14" hidden="1" customWidth="1"/>
     <col min="39" max="39" width="33" style="14" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="59" style="14" hidden="1" customWidth="1"/>
-    <col min="41" max="41" width="65.33203125" style="14" hidden="1" customWidth="1"/>
-    <col min="42" max="42" width="33.83203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="59.83203125" style="14" hidden="1" customWidth="1"/>
-    <col min="44" max="44" width="66.1640625" style="14" hidden="1" customWidth="1"/>
-    <col min="45" max="45" width="36.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="62.5" style="14" hidden="1" customWidth="1"/>
-    <col min="47" max="47" width="68.6640625" style="14" hidden="1" customWidth="1"/>
-    <col min="48" max="16384" width="10.83203125" style="14"/>
+    <col min="41" max="41" width="65.28515625" style="14" hidden="1" customWidth="1"/>
+    <col min="42" max="42" width="33.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="59.85546875" style="14" hidden="1" customWidth="1"/>
+    <col min="44" max="44" width="66.140625" style="14" hidden="1" customWidth="1"/>
+    <col min="45" max="45" width="36.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="62.42578125" style="14" hidden="1" customWidth="1"/>
+    <col min="47" max="47" width="68.7109375" style="14" hidden="1" customWidth="1"/>
+    <col min="48" max="16384" width="10.85546875" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>75</v>
       </c>
@@ -1105,7 +1151,7 @@
       <c r="AT1" s="4"/>
       <c r="AU1" s="2"/>
     </row>
-    <row r="2" spans="1:47" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>75</v>
       </c>
@@ -1244,7 +1290,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:47" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>75</v>
       </c>
@@ -1295,7 +1341,7 @@
       <c r="AT3"/>
       <c r="AU3"/>
     </row>
-    <row r="4" spans="1:47" s="17" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:47" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -1342,7 +1388,7 @@
       <c r="AR4" s="16"/>
       <c r="AS4" s="15"/>
     </row>
-    <row r="5" spans="1:47" s="17" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:47" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>77</v>
       </c>
@@ -1391,7 +1437,7 @@
       <c r="AR5" s="16"/>
       <c r="AS5" s="18"/>
     </row>
-    <row r="6" spans="1:47" s="17" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:47" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>77</v>
       </c>
@@ -1440,7 +1486,7 @@
       <c r="AR6" s="16"/>
       <c r="AS6" s="18"/>
     </row>
-    <row r="7" spans="1:47" s="17" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:47" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>77</v>
       </c>
@@ -1489,7 +1535,7 @@
       <c r="AR7" s="16"/>
       <c r="AS7" s="18"/>
     </row>
-    <row r="8" spans="1:47" s="17" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:47" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>77</v>
       </c>
@@ -1538,7 +1584,7 @@
       <c r="AR8" s="16"/>
       <c r="AS8" s="18"/>
     </row>
-    <row r="9" spans="1:47" s="17" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:47" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>77</v>
       </c>
@@ -1587,7 +1633,7 @@
       <c r="AR9" s="16"/>
       <c r="AS9" s="18"/>
     </row>
-    <row r="10" spans="1:47" s="17" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:47" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>77</v>
       </c>
@@ -1636,7 +1682,7 @@
       <c r="AR10" s="16"/>
       <c r="AS10" s="18"/>
     </row>
-    <row r="11" spans="1:47" s="17" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:47" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -1683,7 +1729,7 @@
       <c r="AR11" s="16"/>
       <c r="AS11" s="15"/>
     </row>
-    <row r="12" spans="1:47" s="17" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:47" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>78</v>
       </c>
@@ -1736,7 +1782,7 @@
       <c r="AR12" s="16"/>
       <c r="AS12" s="19"/>
     </row>
-    <row r="13" spans="1:47" s="17" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:47" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>78</v>
       </c>
@@ -1789,7 +1835,7 @@
       <c r="AR13" s="16"/>
       <c r="AS13" s="20"/>
     </row>
-    <row r="14" spans="1:47" s="17" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:47" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>78</v>
       </c>
@@ -1842,7 +1888,7 @@
       <c r="AR14" s="16"/>
       <c r="AS14" s="21"/>
     </row>
-    <row r="15" spans="1:47" s="17" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:47" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>78</v>
       </c>
@@ -1895,7 +1941,7 @@
       <c r="AR15" s="16"/>
       <c r="AS15" s="21"/>
     </row>
-    <row r="16" spans="1:47" s="17" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:47" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>84</v>
       </c>
@@ -1905,15 +1951,21 @@
       <c r="C16" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
+      <c r="D16" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="E16" s="43" t="s">
+        <v>102</v>
+      </c>
       <c r="F16" s="22"/>
       <c r="G16" s="22"/>
       <c r="H16" s="22"/>
       <c r="I16" s="22"/>
       <c r="J16" s="22"/>
       <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
+      <c r="L16" s="43" t="s">
+        <v>103</v>
+      </c>
       <c r="M16" s="22"/>
       <c r="N16" s="22"/>
       <c r="O16" s="22"/>
@@ -1940,7 +1992,9 @@
       <c r="AJ16" s="22"/>
       <c r="AK16" s="22"/>
       <c r="AL16" s="22"/>
-      <c r="AM16" s="22"/>
+      <c r="AM16" s="43" t="s">
+        <v>104</v>
+      </c>
       <c r="AN16" s="22"/>
       <c r="AO16" s="22"/>
       <c r="AP16" s="22"/>
@@ -1948,7 +2002,7 @@
       <c r="AR16" s="16"/>
       <c r="AS16" s="22"/>
     </row>
-    <row r="17" spans="1:16382" s="17" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16382" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>84</v>
       </c>
@@ -1999,7 +2053,7 @@
       <c r="AR17" s="16"/>
       <c r="AS17" s="23"/>
     </row>
-    <row r="18" spans="1:16382" s="17" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16382" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>87</v>
       </c>
@@ -2052,7 +2106,7 @@
       <c r="AR18" s="16"/>
       <c r="AS18" s="21"/>
     </row>
-    <row r="19" spans="1:16382" s="17" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16382" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>87</v>
       </c>
@@ -2105,7 +2159,7 @@
       <c r="AR19" s="16"/>
       <c r="AS19" s="21"/>
     </row>
-    <row r="20" spans="1:16382" s="17" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16382" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>87</v>
       </c>
@@ -2156,7 +2210,7 @@
       <c r="AR20" s="16"/>
       <c r="AS20" s="21"/>
     </row>
-    <row r="21" spans="1:16382" s="17" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16382" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>87</v>
       </c>
@@ -2166,48 +2220,76 @@
       <c r="C21" s="34"/>
       <c r="D21" s="21"/>
       <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
+      <c r="F21" s="44" t="s">
+        <v>105</v>
+      </c>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
+      <c r="I21" s="44" t="s">
+        <v>105</v>
+      </c>
       <c r="J21" s="21"/>
       <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
+      <c r="L21" s="45" t="s">
+        <v>106</v>
+      </c>
       <c r="M21" s="21"/>
       <c r="N21" s="21"/>
-      <c r="O21" s="21"/>
+      <c r="O21" s="44" t="s">
+        <v>105</v>
+      </c>
       <c r="P21" s="21"/>
       <c r="Q21" s="21"/>
-      <c r="R21" s="21"/>
+      <c r="R21" s="44" t="s">
+        <v>105</v>
+      </c>
       <c r="S21" s="21"/>
       <c r="T21" s="21"/>
-      <c r="U21" s="21"/>
+      <c r="U21" s="44" t="s">
+        <v>105</v>
+      </c>
       <c r="V21" s="21"/>
       <c r="W21" s="21"/>
-      <c r="X21" s="21"/>
+      <c r="X21" s="44" t="s">
+        <v>105</v>
+      </c>
       <c r="Y21" s="21"/>
       <c r="Z21" s="21"/>
-      <c r="AA21" s="21"/>
+      <c r="AA21" s="44" t="s">
+        <v>105</v>
+      </c>
       <c r="AB21" s="21"/>
       <c r="AC21" s="21"/>
-      <c r="AD21" s="21"/>
+      <c r="AD21" s="44" t="s">
+        <v>105</v>
+      </c>
       <c r="AE21" s="21"/>
       <c r="AF21" s="21"/>
-      <c r="AG21" s="21"/>
+      <c r="AG21" s="44" t="s">
+        <v>105</v>
+      </c>
       <c r="AH21" s="21"/>
       <c r="AI21" s="21"/>
-      <c r="AJ21" s="21"/>
+      <c r="AJ21" s="44" t="s">
+        <v>105</v>
+      </c>
       <c r="AK21" s="21"/>
       <c r="AL21" s="21"/>
-      <c r="AM21" s="21"/>
+      <c r="AM21" s="45" t="s">
+        <v>106</v>
+      </c>
       <c r="AN21" s="21"/>
       <c r="AO21" s="21"/>
-      <c r="AP21" s="21"/>
+      <c r="AP21" s="44" t="s">
+        <v>105</v>
+      </c>
       <c r="AQ21" s="16"/>
       <c r="AR21" s="16"/>
-      <c r="AS21" s="21"/>
+      <c r="AS21" s="44" t="s">
+        <v>105</v>
+      </c>
     </row>
-    <row r="22" spans="1:16382" s="17" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16382" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -2254,7 +2336,7 @@
       <c r="AR22" s="16"/>
       <c r="AS22" s="24"/>
     </row>
-    <row r="23" spans="1:16382" s="17" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16382" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="37"/>
       <c r="B23" s="37"/>
       <c r="C23" s="37"/>
@@ -2301,7 +2383,7 @@
       <c r="AR23" s="16"/>
       <c r="AS23" s="24"/>
     </row>
-    <row r="24" spans="1:16382" s="17" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16382" s="17" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>49</v>
       </c>
@@ -2372,7 +2454,7 @@
       <c r="AR24" s="16"/>
       <c r="AS24" s="21"/>
     </row>
-    <row r="25" spans="1:16382" s="17" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16382" s="17" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>49</v>
       </c>
@@ -2443,7 +2525,7 @@
       <c r="AR25" s="16"/>
       <c r="AS25" s="21"/>
     </row>
-    <row r="26" spans="1:16382" s="17" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16382" s="17" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>49</v>
       </c>
@@ -2524,7 +2606,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:16382" s="17" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16382" s="17" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>49</v>
       </c>
@@ -2577,7 +2659,7 @@
       <c r="AR27" s="16"/>
       <c r="AS27" s="21"/>
     </row>
-    <row r="28" spans="1:16382" s="17" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16382" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
         <v>49</v>
       </c>
@@ -2630,7 +2712,7 @@
       <c r="AR28" s="16"/>
       <c r="AS28" s="21"/>
     </row>
-    <row r="29" spans="1:16382" s="17" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16382" s="17" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
         <v>49</v>
       </c>
@@ -2683,7 +2765,7 @@
       <c r="AR29" s="16"/>
       <c r="AS29" s="25"/>
     </row>
-    <row r="30" spans="1:16382" s="17" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16382" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="41"/>
       <c r="B30" s="41"/>
       <c r="C30" s="41"/>
@@ -2730,7 +2812,7 @@
       <c r="AR30" s="16"/>
       <c r="AS30" s="26"/>
     </row>
-    <row r="31" spans="1:16382" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16382" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>

--- a/templates/4COM04_GenomeAssembly/4COM04_GenomeAssembly.xlsx
+++ b/templates/4COM04_GenomeAssembly/4COM04_GenomeAssembly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\nfdi4plants\SWATE_templates\templates\4COM04_GenomeAssembly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A23E5C00-11DA-4120-9B58-01F1E2429211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3666F716-576B-4C98-8047-CA233D1000DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9EEB2079-C266-4F1B-B120-9813692A2E4B}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9EEB2079-C266-4F1B-B120-9813692A2E4B}"/>
   </bookViews>
   <sheets>
     <sheet name="4COM04_GenomeAssembly" sheetId="1" r:id="rId1"/>
@@ -1043,7 +1043,7 @@
       <pane xSplit="3" ySplit="22" topLeftCell="D23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
-      <selection pane="bottomRight" activeCell="D23" sqref="D23"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/templates/4COM04_GenomeAssembly/4COM04_GenomeAssembly.xlsx
+++ b/templates/4COM04_GenomeAssembly/4COM04_GenomeAssembly.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/Google Drive/CEPLAS/MetadataTemplates/SWATE_templates/templates/4COM04_GenomeAssembly/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\nfdi4plants\SWATE_templates\templates\4COM04_GenomeAssembly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E74AAB12-3B6F-E04E-BB60-252B37E6EDDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{078F14A9-2AFD-4F5B-B0DE-9B5459596744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4700" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{9EEB2079-C266-4F1B-B120-9813692A2E4B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9EEB2079-C266-4F1B-B120-9813692A2E4B}"/>
   </bookViews>
   <sheets>
     <sheet name="4COM04_GenomeAssembly" sheetId="1" r:id="rId1"/>
@@ -489,9 +489,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="2" builtinId="8"/>
     <cellStyle name="Normal 3" xfId="1" xr:uid="{8FDA171C-9A9B-E446-9A4B-C7BD813E93C7}"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -561,7 +561,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -885,55 +885,55 @@
       <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.6640625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="35.83203125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="50.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="35.85546875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50.140625" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="37" style="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="63" style="8" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="69.1640625" style="8" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="69.140625" style="8" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="31" style="8" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="57" style="8" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="63.1640625" style="8" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="37.1640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="63.1640625" style="8" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="69.33203125" style="8" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="40.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="66.6640625" style="8" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="72.83203125" style="8" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="61.1640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="76.6640625" style="8" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="82.83203125" style="8" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="41.83203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="57.6640625" style="8" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="63.83203125" style="8" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="43.1640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="69.1640625" style="8" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="75.33203125" style="8" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="255.83203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="54.33203125" style="8" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="60.6640625" style="8" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="143.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="48.33203125" style="8" hidden="1" customWidth="1"/>
-    <col min="31" max="31" width="54.5" style="8" hidden="1" customWidth="1"/>
-    <col min="32" max="32" width="25.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="51.33203125" style="8" hidden="1" customWidth="1"/>
-    <col min="34" max="34" width="57.5" style="8" hidden="1" customWidth="1"/>
-    <col min="35" max="35" width="70.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="62.6640625" style="8" hidden="1" customWidth="1"/>
-    <col min="37" max="37" width="68.83203125" style="8" hidden="1" customWidth="1"/>
-    <col min="38" max="38" width="123.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="63.140625" style="8" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="37.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="63.140625" style="8" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="69.28515625" style="8" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="40.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="66.7109375" style="8" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="72.85546875" style="8" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="61.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="76.7109375" style="8" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="82.85546875" style="8" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="41.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="57.7109375" style="8" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="63.85546875" style="8" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="43.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="69.140625" style="8" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="75.28515625" style="8" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="255.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="54.28515625" style="8" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="60.7109375" style="8" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="143.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="48.28515625" style="8" hidden="1" customWidth="1"/>
+    <col min="31" max="31" width="54.42578125" style="8" hidden="1" customWidth="1"/>
+    <col min="32" max="32" width="25.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="51.28515625" style="8" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="57.42578125" style="8" hidden="1" customWidth="1"/>
+    <col min="35" max="35" width="70.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="62.7109375" style="8" hidden="1" customWidth="1"/>
+    <col min="37" max="37" width="68.85546875" style="8" hidden="1" customWidth="1"/>
+    <col min="38" max="38" width="123.28515625" style="8" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="59" style="8" hidden="1" customWidth="1"/>
-    <col min="40" max="40" width="65.33203125" style="8" hidden="1" customWidth="1"/>
-    <col min="41" max="41" width="33.83203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="59.83203125" style="8" hidden="1" customWidth="1"/>
-    <col min="43" max="43" width="66.1640625" style="8" hidden="1" customWidth="1"/>
-    <col min="44" max="16384" width="10.83203125" style="8"/>
+    <col min="40" max="40" width="65.28515625" style="8" hidden="1" customWidth="1"/>
+    <col min="41" max="41" width="33.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="59.85546875" style="8" hidden="1" customWidth="1"/>
+    <col min="43" max="43" width="66.140625" style="8" hidden="1" customWidth="1"/>
+    <col min="44" max="16384" width="10.85546875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>68</v>
       </c>
@@ -982,7 +982,7 @@
       <c r="AP1" s="3"/>
       <c r="AQ1" s="3"/>
     </row>
-    <row r="2" spans="1:43" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>68</v>
       </c>
@@ -1111,7 +1111,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:43" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>68</v>
       </c>
@@ -1158,7 +1158,7 @@
       <c r="AP3"/>
       <c r="AQ3"/>
     </row>
-    <row r="4" spans="1:43" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:43" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="9"/>
@@ -1203,7 +1203,7 @@
       <c r="AP4" s="10"/>
       <c r="AQ4" s="10"/>
     </row>
-    <row r="5" spans="1:43" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:43" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>69</v>
       </c>
@@ -1250,7 +1250,7 @@
       <c r="AP5" s="10"/>
       <c r="AQ5" s="10"/>
     </row>
-    <row r="6" spans="1:43" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:43" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>69</v>
       </c>
@@ -1297,7 +1297,7 @@
       <c r="AP6" s="10"/>
       <c r="AQ6" s="10"/>
     </row>
-    <row r="7" spans="1:43" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:43" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>69</v>
       </c>
@@ -1344,7 +1344,7 @@
       <c r="AP7" s="10"/>
       <c r="AQ7" s="10"/>
     </row>
-    <row r="8" spans="1:43" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:43" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>69</v>
       </c>
@@ -1391,7 +1391,7 @@
       <c r="AP8" s="10"/>
       <c r="AQ8" s="10"/>
     </row>
-    <row r="9" spans="1:43" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:43" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>69</v>
       </c>
@@ -1438,7 +1438,7 @@
       <c r="AP9" s="10"/>
       <c r="AQ9" s="10"/>
     </row>
-    <row r="10" spans="1:43" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:43" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>69</v>
       </c>
@@ -1485,7 +1485,7 @@
       <c r="AP10" s="10"/>
       <c r="AQ10" s="10"/>
     </row>
-    <row r="11" spans="1:43" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:43" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="9"/>
@@ -1530,7 +1530,7 @@
       <c r="AP11" s="10"/>
       <c r="AQ11" s="10"/>
     </row>
-    <row r="12" spans="1:43" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:43" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
         <v>75</v>
       </c>
@@ -1579,7 +1579,7 @@
       <c r="AP12" s="10"/>
       <c r="AQ12" s="10"/>
     </row>
-    <row r="13" spans="1:43" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:43" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="27" t="s">
         <v>76</v>
       </c>
@@ -1628,7 +1628,7 @@
       <c r="AP13" s="10"/>
       <c r="AQ13" s="10"/>
     </row>
-    <row r="14" spans="1:43" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:43" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="19"/>
       <c r="B14" s="19"/>
       <c r="C14" s="14"/>
@@ -1673,7 +1673,7 @@
       <c r="AP14" s="10"/>
       <c r="AQ14" s="10"/>
     </row>
-    <row r="15" spans="1:43" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:43" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>42</v>
       </c>
@@ -1740,7 +1740,7 @@
       <c r="AP15" s="10"/>
       <c r="AQ15" s="10"/>
     </row>
-    <row r="16" spans="1:43" s="11" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:43" s="11" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>42</v>
       </c>
@@ -1807,7 +1807,7 @@
       <c r="AP16" s="10"/>
       <c r="AQ16" s="10"/>
     </row>
-    <row r="17" spans="1:16377" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16377" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>42</v>
       </c>
@@ -1882,7 +1882,7 @@
       <c r="AP17" s="10"/>
       <c r="AQ17" s="10"/>
     </row>
-    <row r="18" spans="1:16377" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16377" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>42</v>
       </c>
@@ -1931,7 +1931,7 @@
       <c r="AP18" s="10"/>
       <c r="AQ18" s="10"/>
     </row>
-    <row r="19" spans="1:16377" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16377" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>42</v>
       </c>
@@ -1980,7 +1980,7 @@
       <c r="AP19" s="10"/>
       <c r="AQ19" s="10"/>
     </row>
-    <row r="20" spans="1:16377" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16377" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>42</v>
       </c>
@@ -2029,7 +2029,7 @@
       <c r="AP20" s="10"/>
       <c r="AQ20" s="10"/>
     </row>
-    <row r="21" spans="1:16377" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16377" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="22"/>
       <c r="B21" s="22"/>
       <c r="C21" s="16"/>
@@ -2074,7 +2074,7 @@
       <c r="AP21" s="10"/>
       <c r="AQ21" s="10"/>
     </row>
-    <row r="22" spans="1:16377" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16377" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>

--- a/templates/4COM04_GenomeAssembly/4COM04_GenomeAssembly.xlsx
+++ b/templates/4COM04_GenomeAssembly/4COM04_GenomeAssembly.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\omaus\SWATE_templates\templates\4COM04_GenomeAssembly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E73294-BF05-4E00-BFE7-AF64E347FDF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC45493E-C2CB-480F-8F4C-318EA9CFBC13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="4COM04_GenomeAssembly" sheetId="1" r:id="rId1"/>
+    <sheet name="SwateTemplateMetadata" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,8 +25,28 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={1B82A122-B7DC-4A5B-92B7-EFF54693A4C6}</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{1B82A122-B7DC-4A5B-92B7-EFF54693A4C6}">
+      <text>
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
+    The unique identifier of this template. It will be auto generated.
+Antwort:
+    id=11b23480-80a8-4d95-a2bb-b3e9c7d53a23</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <si>
     <t>Source Name</t>
   </si>
@@ -139,13 +160,145 @@
   </si>
   <si>
     <t>Data File Name</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Docslink</t>
+  </si>
+  <si>
+    <t>Organisation</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>#ER list</t>
+  </si>
+  <si>
+    <t>ER</t>
+  </si>
+  <si>
+    <t>ER Term Accession Number</t>
+  </si>
+  <si>
+    <t>ER Term Source REF</t>
+  </si>
+  <si>
+    <t>#TAGS list</t>
+  </si>
+  <si>
+    <t>Tags</t>
+  </si>
+  <si>
+    <t>Tags Term Accession Number</t>
+  </si>
+  <si>
+    <t>Tags Term Source REF</t>
+  </si>
+  <si>
+    <t>#AUTHORS list</t>
+  </si>
+  <si>
+    <t>Authors Last Name</t>
+  </si>
+  <si>
+    <t>Authors First Name</t>
+  </si>
+  <si>
+    <t>Authors Mid Initials</t>
+  </si>
+  <si>
+    <t>Authors Email</t>
+  </si>
+  <si>
+    <t>Authors Phone</t>
+  </si>
+  <si>
+    <t>Authors Fax</t>
+  </si>
+  <si>
+    <t>Authors Address</t>
+  </si>
+  <si>
+    <t>Authors Affiliation</t>
+  </si>
+  <si>
+    <t>#AUTHORS ROLES list</t>
+  </si>
+  <si>
+    <t>Authors Roles</t>
+  </si>
+  <si>
+    <t>Authors Roles Term Accession Number</t>
+  </si>
+  <si>
+    <t>Authors Roles Term Source REF</t>
+  </si>
+  <si>
+    <t>11b23480-80a8-4d95-a2bb-b3e9c7d53a23</t>
+  </si>
+  <si>
+    <t>Genome assembly</t>
+  </si>
+  <si>
+    <t>Template to describe computational of a genome assembly</t>
+  </si>
+  <si>
+    <t>annotationTableSmoothBird74</t>
+  </si>
+  <si>
+    <t>SRA</t>
+  </si>
+  <si>
+    <t>GENBANK</t>
+  </si>
+  <si>
+    <t>Genomics</t>
+  </si>
+  <si>
+    <t>DNASeq</t>
+  </si>
+  <si>
+    <t>Assay</t>
+  </si>
+  <si>
+    <t>Kranz</t>
+  </si>
+  <si>
+    <t>Brilhaus</t>
+  </si>
+  <si>
+    <t>Maus</t>
+  </si>
+  <si>
+    <t>Angela</t>
+  </si>
+  <si>
+    <t>Dominik</t>
+  </si>
+  <si>
+    <t>Oliver</t>
+  </si>
+  <si>
+    <t>1.1.3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,19 +306,127 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFF5F5F5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF217346"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9FCDB3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0E5C2F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC21F3A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFEFEFE"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFEFEFE"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFEFEFE"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFEFEFE"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFEFEFE"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFEFEFE"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFEFEFE"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFEFEFE"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFEFEFE"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFEFEFE"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFEFEFE"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFEFEFE"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFEFEFE"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFEFEFE"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -174,8 +435,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -191,6 +482,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Oliver Maus" id="{FBC36E2B-B730-4109-BA59-BA90700921C5}" userId="Oliver Maus" providerId="None"/>
+</personList>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -501,9 +798,20 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A1" dT="2021-11-03T17:15:55.31" personId="{FBC36E2B-B730-4109-BA59-BA90700921C5}" id="{1B82A122-B7DC-4A5B-92B7-EFF54693A4C6}">
+    <text>The unique identifier of this template. It will be auto generated.</text>
+  </threadedComment>
+  <threadedComment ref="A1" dT="2021-11-03T17:15:55.32" personId="{FBC36E2B-B730-4109-BA59-BA90700921C5}" id="{91FE8604-0F2C-4F8A-9B14-A9C74ADC2D4F}" parentId="{1B82A122-B7DC-4A5B-92B7-EFF54693A4C6}">
+    <text>id=11b23480-80a8-4d95-a2bb-b3e9c7d53a23</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="625" row="1">
+  <wetp:taskpane dockstate="right" visibility="0" width="350" row="0">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
 </wetp:taskpanes>
@@ -689,4 +997,282 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2198836-D18B-4D0A-A514-00A7EC4AFC3D}">
+  <dimension ref="A1:D28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="6"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="6"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="7"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="8"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="8"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="7"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="7"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="7"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="6"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="9"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<customXml>
+  <SwateTable Table="annotationTableSmoothBird74">
+    <TableValidation DateTime="2021-11-03 17:15" SwateVersion="0.5.1" TableName="annotationTableSmoothBird74" Userlist="">
+      <ColumnValidation ColumnAdress="0" ColumnHeader="Source Name" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="1" ColumnHeader="Parameter [BioSample Accession Number]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="4" ColumnHeader="Parameter [Data filtering software]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="7" ColumnHeader="Parameter [Data filtering software version]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="10" ColumnHeader="Parameter [Data filtering Software Parameters]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="13" ColumnHeader="Parameter [Next generation sequencing instrument model]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="16" ColumnHeader="Parameter [sequence assembly algorithm]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="19" ColumnHeader="Parameter [Sequence assembly algorithm version]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="22" ColumnHeader="Parameter [sequence assembly name]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="25" ColumnHeader="Parameter [genome coverage]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="28" ColumnHeader="Parameter [Genome status]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="31" ColumnHeader="Parameter [Genome reference sequence]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="34" ColumnHeader="Parameter [Processed data file format]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="37" ColumnHeader="Data File Name" Importance="None" Unit="None" ValidationFormat="None"/>
+    </TableValidation>
+  </SwateTable>
+</customXml>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A7366A8-CD41-49DD-92E0-5146CDDDAE49}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
 </file>
--- a/templates/4COM04_GenomeAssembly/4COM04_GenomeAssembly.xlsx
+++ b/templates/4COM04_GenomeAssembly/4COM04_GenomeAssembly.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\omaus\SWATE_templates\templates\4COM04_GenomeAssembly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC45493E-C2CB-480F-8F4C-318EA9CFBC13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{564A9069-AEBA-4424-974C-64D2467177D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="4COM04_GenomeAssembly" sheetId="1" r:id="rId1"/>
     <sheet name="SwateTemplateMetadata" sheetId="2" r:id="rId2"/>
+    <sheet name="GENBANK_GENOME" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="124">
   <si>
     <t>Source Name</t>
   </si>
@@ -292,13 +293,139 @@
   </si>
   <si>
     <t>1.1.3</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>TermSourceRef</t>
+  </si>
+  <si>
+    <t>Ontology</t>
+  </si>
+  <si>
+    <t>TAN</t>
+  </si>
+  <si>
+    <t>Content type (validation)</t>
+  </si>
+  <si>
+    <t>Notes during templating</t>
+  </si>
+  <si>
+    <t>Target term</t>
+  </si>
+  <si>
+    <t>Instruction</t>
+  </si>
+  <si>
+    <t>Requirement (m/o/n)</t>
+  </si>
+  <si>
+    <t>Value (cv/s/d)</t>
+  </si>
+  <si>
+    <t>Additional information</t>
+  </si>
+  <si>
+    <t>Review comments</t>
+  </si>
+  <si>
+    <t>Sample Name</t>
+  </si>
+  <si>
+    <t>NFDI4PSO:0000078</t>
+  </si>
+  <si>
+    <t>NFDI4PSO</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000078</t>
+  </si>
+  <si>
+    <t>NFDI4PSO:0000023</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000023</t>
+  </si>
+  <si>
+    <t>NFDI4PSO:0000024</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000024</t>
+  </si>
+  <si>
+    <t>NFDI4PSO:0000025</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000025</t>
+  </si>
+  <si>
+    <t>NFDI4PSO:0000040</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000040</t>
+  </si>
+  <si>
+    <t>OBI:0001522</t>
+  </si>
+  <si>
+    <t>OBI</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0001522</t>
+  </si>
+  <si>
+    <t>NFDI4PSO:0000060</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000060</t>
+  </si>
+  <si>
+    <t>OBI:0001948</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0001948</t>
+  </si>
+  <si>
+    <t>OBI:0001939</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0001939</t>
+  </si>
+  <si>
+    <t>NFDI4PSO:0000061</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000061</t>
+  </si>
+  <si>
+    <t>NFDI4PSO:0000026</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000026</t>
+  </si>
+  <si>
+    <t>Parameter [Processed data file name]</t>
+  </si>
+  <si>
+    <t>NFDI4PSO:0000028</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000028</t>
+  </si>
+  <si>
+    <t>NFDI4PSO:0000027</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000027</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -313,12 +440,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -831,7 +952,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1248,6 +1369,643 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:L16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="54.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J2" t="s">
+        <v>82</v>
+      </c>
+      <c r="K2" t="s">
+        <v>82</v>
+      </c>
+      <c r="L2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H3" t="s">
+        <v>82</v>
+      </c>
+      <c r="I3" t="s">
+        <v>82</v>
+      </c>
+      <c r="J3" t="s">
+        <v>82</v>
+      </c>
+      <c r="K3" t="s">
+        <v>82</v>
+      </c>
+      <c r="L3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H4" t="s">
+        <v>82</v>
+      </c>
+      <c r="I4" t="s">
+        <v>82</v>
+      </c>
+      <c r="J4" t="s">
+        <v>82</v>
+      </c>
+      <c r="K4" t="s">
+        <v>82</v>
+      </c>
+      <c r="L4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H5" t="s">
+        <v>82</v>
+      </c>
+      <c r="I5" t="s">
+        <v>82</v>
+      </c>
+      <c r="J5" t="s">
+        <v>82</v>
+      </c>
+      <c r="K5" t="s">
+        <v>82</v>
+      </c>
+      <c r="L5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" t="s">
+        <v>82</v>
+      </c>
+      <c r="H6" t="s">
+        <v>82</v>
+      </c>
+      <c r="I6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" t="s">
+        <v>82</v>
+      </c>
+      <c r="K6" t="s">
+        <v>82</v>
+      </c>
+      <c r="L6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H7" t="s">
+        <v>82</v>
+      </c>
+      <c r="I7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G8" t="s">
+        <v>82</v>
+      </c>
+      <c r="H8" t="s">
+        <v>82</v>
+      </c>
+      <c r="I8" t="s">
+        <v>82</v>
+      </c>
+      <c r="J8" t="s">
+        <v>82</v>
+      </c>
+      <c r="K8" t="s">
+        <v>82</v>
+      </c>
+      <c r="L8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D9" t="s">
+        <v>108</v>
+      </c>
+      <c r="E9" t="s">
+        <v>82</v>
+      </c>
+      <c r="F9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H9" t="s">
+        <v>82</v>
+      </c>
+      <c r="I9" t="s">
+        <v>82</v>
+      </c>
+      <c r="J9" t="s">
+        <v>82</v>
+      </c>
+      <c r="K9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" t="s">
+        <v>110</v>
+      </c>
+      <c r="E10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G10" t="s">
+        <v>82</v>
+      </c>
+      <c r="H10" t="s">
+        <v>82</v>
+      </c>
+      <c r="I10" t="s">
+        <v>82</v>
+      </c>
+      <c r="J10" t="s">
+        <v>82</v>
+      </c>
+      <c r="K10" t="s">
+        <v>82</v>
+      </c>
+      <c r="L10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" t="s">
+        <v>107</v>
+      </c>
+      <c r="D11" t="s">
+        <v>112</v>
+      </c>
+      <c r="E11" t="s">
+        <v>82</v>
+      </c>
+      <c r="F11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G11" t="s">
+        <v>82</v>
+      </c>
+      <c r="H11" t="s">
+        <v>82</v>
+      </c>
+      <c r="I11" t="s">
+        <v>82</v>
+      </c>
+      <c r="J11" t="s">
+        <v>82</v>
+      </c>
+      <c r="K11" t="s">
+        <v>82</v>
+      </c>
+      <c r="L11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12" t="s">
+        <v>114</v>
+      </c>
+      <c r="E12" t="s">
+        <v>82</v>
+      </c>
+      <c r="F12" t="s">
+        <v>82</v>
+      </c>
+      <c r="G12" t="s">
+        <v>82</v>
+      </c>
+      <c r="H12" t="s">
+        <v>82</v>
+      </c>
+      <c r="I12" t="s">
+        <v>82</v>
+      </c>
+      <c r="J12" t="s">
+        <v>82</v>
+      </c>
+      <c r="K12" t="s">
+        <v>82</v>
+      </c>
+      <c r="L12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C13" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" t="s">
+        <v>116</v>
+      </c>
+      <c r="E13" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" t="s">
+        <v>82</v>
+      </c>
+      <c r="G13" t="s">
+        <v>82</v>
+      </c>
+      <c r="H13" t="s">
+        <v>82</v>
+      </c>
+      <c r="I13" t="s">
+        <v>82</v>
+      </c>
+      <c r="J13" t="s">
+        <v>82</v>
+      </c>
+      <c r="K13" t="s">
+        <v>82</v>
+      </c>
+      <c r="L13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" t="s">
+        <v>117</v>
+      </c>
+      <c r="C14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" t="s">
+        <v>118</v>
+      </c>
+      <c r="E14" t="s">
+        <v>82</v>
+      </c>
+      <c r="F14" t="s">
+        <v>82</v>
+      </c>
+      <c r="G14" t="s">
+        <v>82</v>
+      </c>
+      <c r="H14" t="s">
+        <v>82</v>
+      </c>
+      <c r="I14" t="s">
+        <v>82</v>
+      </c>
+      <c r="J14" t="s">
+        <v>82</v>
+      </c>
+      <c r="K14" t="s">
+        <v>82</v>
+      </c>
+      <c r="L14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B15" t="s">
+        <v>120</v>
+      </c>
+      <c r="C15" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" t="s">
+        <v>121</v>
+      </c>
+      <c r="E15" t="s">
+        <v>82</v>
+      </c>
+      <c r="F15" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15" t="s">
+        <v>82</v>
+      </c>
+      <c r="H15" t="s">
+        <v>82</v>
+      </c>
+      <c r="I15" t="s">
+        <v>82</v>
+      </c>
+      <c r="J15" t="s">
+        <v>82</v>
+      </c>
+      <c r="K15" t="s">
+        <v>82</v>
+      </c>
+      <c r="L15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" t="s">
+        <v>123</v>
+      </c>
+      <c r="E16" t="s">
+        <v>82</v>
+      </c>
+      <c r="F16" t="s">
+        <v>82</v>
+      </c>
+      <c r="G16" t="s">
+        <v>82</v>
+      </c>
+      <c r="H16" t="s">
+        <v>82</v>
+      </c>
+      <c r="I16" t="s">
+        <v>82</v>
+      </c>
+      <c r="J16" t="s">
+        <v>82</v>
+      </c>
+      <c r="K16" t="s">
+        <v>82</v>
+      </c>
+      <c r="L16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <customXml>
   <SwateTable Table="annotationTableSmoothBird74">

--- a/templates/4COM04_GenomeAssembly/4COM04_GenomeAssembly.xlsx
+++ b/templates/4COM04_GenomeAssembly/4COM04_GenomeAssembly.xlsx
@@ -8,19 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\omaus\SWATE_templates\templates\4COM04_GenomeAssembly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{564A9069-AEBA-4424-974C-64D2467177D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D420047-162D-46BB-97F5-E88D35002BEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="4COM04_GenomeAssembly" sheetId="1" r:id="rId1"/>
     <sheet name="SwateTemplateMetadata" sheetId="2" r:id="rId2"/>
     <sheet name="GENBANK_GENOME" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -47,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="146">
   <si>
     <t>Source Name</t>
   </si>
@@ -419,6 +428,75 @@
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000027</t>
+  </si>
+  <si>
+    <t>sample_name</t>
+  </si>
+  <si>
+    <t>the sample name that was used to register the BioSample</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>biosample_accession</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMNxxxxxx
+</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>sequencing_technology</t>
+  </si>
+  <si>
+    <t>the sequencing machine(s) used to generate the data, eg Illumina MiSeq or 454</t>
+  </si>
+  <si>
+    <t>cv</t>
+  </si>
+  <si>
+    <t>assembly_method</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name of algorithm, eg Newbler OR SOAPdenovo
+</t>
+  </si>
+  <si>
+    <t>assembly_method_version</t>
+  </si>
+  <si>
+    <t>Example: 2.3 OR MAY-2011</t>
+  </si>
+  <si>
+    <t>assembly_name</t>
+  </si>
+  <si>
+    <t>This field is usually left blank, especially for prokaryotes, but is available for the name that you are using in your manuscript or abstract to describe this assembly. A good assembly name generally includes a short 3-4 letter abbreviation for the institution, a 4-6 letter abbreviation of the organism name, and a version. For example, UCLA_Agam_2.1 for version 2.1 of the Anopheles gambiae genome from a lab in UCLA. For the organism name abbreviation, avoid the 3+3 "genus + species" format (eg "PanTro" for Pan troglodytes) since that could cause conflicts with the UCSC database name; we recommend formats such as 1+3 or 2+4 for the "genus + species" instead (eg PTro or PaTrog). Do not use the full scientific name, in case that name changes in the future.</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>genome_coverage</t>
+  </si>
+  <si>
+    <t>The estimated base coverage across the genome, eg 12x. This can be calculated by dividing the number of bases sequenced by the expected genome size and multiplying that by the percentage of bases that were placed in the final assembly. More simply it is the number of bases sequenced divided by the expected genome size.</t>
+  </si>
+  <si>
+    <t>reference_genome</t>
+  </si>
+  <si>
+    <t>for reference-guided assemblies: the accession.version and/or the assembly name of the genome assembly that was used as the reference guide for this assembly</t>
+  </si>
+  <si>
+    <t>filename</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Each genome must be in 1 or 2 files. You can concatenate multiple fasta files into a single file that can be submitted or used as input for tbl2asn.
+</t>
   </si>
 </sst>
 </file>
@@ -474,7 +552,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -552,11 +630,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD2D2D2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD2D2D2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD2D2D2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD2D2D2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -587,6 +680,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -952,7 +1051,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1373,9 +1472,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1385,7 +1482,7 @@
     <col min="4" max="4" width="46.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
@@ -1394,612 +1491,494 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="11" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H2" t="s">
-        <v>82</v>
-      </c>
-      <c r="I2" t="s">
-        <v>82</v>
-      </c>
-      <c r="J2" t="s">
-        <v>82</v>
-      </c>
-      <c r="K2" t="s">
-        <v>82</v>
-      </c>
-      <c r="L2" t="s">
-        <v>82</v>
-      </c>
+      <c r="B2" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="B3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G3" t="s">
-        <v>82</v>
-      </c>
-      <c r="H3" t="s">
-        <v>82</v>
-      </c>
-      <c r="I3" t="s">
-        <v>82</v>
-      </c>
-      <c r="J3" t="s">
-        <v>82</v>
-      </c>
-      <c r="K3" t="s">
-        <v>82</v>
-      </c>
-      <c r="L3" t="s">
-        <v>82</v>
-      </c>
+      <c r="B3" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="E4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F4" t="s">
-        <v>82</v>
-      </c>
-      <c r="G4" t="s">
-        <v>82</v>
-      </c>
-      <c r="H4" t="s">
-        <v>82</v>
-      </c>
-      <c r="I4" t="s">
-        <v>82</v>
-      </c>
-      <c r="J4" t="s">
-        <v>82</v>
-      </c>
-      <c r="K4" t="s">
-        <v>82</v>
-      </c>
-      <c r="L4" t="s">
-        <v>82</v>
-      </c>
+      <c r="E4" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="E5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F5" t="s">
-        <v>82</v>
-      </c>
-      <c r="G5" t="s">
-        <v>82</v>
-      </c>
-      <c r="H5" t="s">
-        <v>82</v>
-      </c>
-      <c r="I5" t="s">
-        <v>82</v>
-      </c>
-      <c r="J5" t="s">
-        <v>82</v>
-      </c>
-      <c r="K5" t="s">
-        <v>82</v>
-      </c>
-      <c r="L5" t="s">
-        <v>82</v>
-      </c>
+      <c r="E5" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="E6" t="s">
-        <v>82</v>
-      </c>
-      <c r="F6" t="s">
-        <v>82</v>
-      </c>
-      <c r="G6" t="s">
-        <v>82</v>
-      </c>
-      <c r="H6" t="s">
-        <v>82</v>
-      </c>
-      <c r="I6" t="s">
-        <v>82</v>
-      </c>
-      <c r="J6" t="s">
-        <v>82</v>
-      </c>
-      <c r="K6" t="s">
-        <v>82</v>
-      </c>
-      <c r="L6" t="s">
-        <v>82</v>
-      </c>
+      <c r="E6" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="E7" t="s">
-        <v>82</v>
-      </c>
-      <c r="F7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G7" t="s">
-        <v>82</v>
-      </c>
-      <c r="H7" t="s">
-        <v>82</v>
-      </c>
-      <c r="I7" t="s">
-        <v>82</v>
-      </c>
-      <c r="J7" t="s">
-        <v>82</v>
-      </c>
-      <c r="K7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L7" t="s">
-        <v>82</v>
-      </c>
+      <c r="E7" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="E8" t="s">
-        <v>82</v>
-      </c>
-      <c r="F8" t="s">
-        <v>82</v>
-      </c>
-      <c r="G8" t="s">
-        <v>82</v>
-      </c>
-      <c r="H8" t="s">
-        <v>82</v>
-      </c>
-      <c r="I8" t="s">
-        <v>82</v>
-      </c>
-      <c r="J8" t="s">
-        <v>82</v>
-      </c>
-      <c r="K8" t="s">
-        <v>82</v>
-      </c>
-      <c r="L8" t="s">
-        <v>82</v>
-      </c>
+      <c r="E8" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="E9" t="s">
-        <v>82</v>
-      </c>
-      <c r="F9" t="s">
-        <v>82</v>
-      </c>
-      <c r="G9" t="s">
-        <v>82</v>
-      </c>
-      <c r="H9" t="s">
-        <v>82</v>
-      </c>
-      <c r="I9" t="s">
-        <v>82</v>
-      </c>
-      <c r="J9" t="s">
-        <v>82</v>
-      </c>
-      <c r="K9" t="s">
-        <v>82</v>
-      </c>
-      <c r="L9" t="s">
-        <v>82</v>
-      </c>
+      <c r="E9" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="E10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F10" t="s">
-        <v>82</v>
-      </c>
-      <c r="G10" t="s">
-        <v>82</v>
-      </c>
-      <c r="H10" t="s">
-        <v>82</v>
-      </c>
-      <c r="I10" t="s">
-        <v>82</v>
-      </c>
-      <c r="J10" t="s">
-        <v>82</v>
-      </c>
-      <c r="K10" t="s">
-        <v>82</v>
-      </c>
-      <c r="L10" t="s">
-        <v>82</v>
-      </c>
+      <c r="E10" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="E11" t="s">
-        <v>82</v>
-      </c>
-      <c r="F11" t="s">
-        <v>82</v>
-      </c>
-      <c r="G11" t="s">
-        <v>82</v>
-      </c>
-      <c r="H11" t="s">
-        <v>82</v>
-      </c>
-      <c r="I11" t="s">
-        <v>82</v>
-      </c>
-      <c r="J11" t="s">
-        <v>82</v>
-      </c>
-      <c r="K11" t="s">
-        <v>82</v>
-      </c>
-      <c r="L11" t="s">
-        <v>82</v>
-      </c>
+      <c r="E11" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="E12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F12" t="s">
-        <v>82</v>
-      </c>
-      <c r="G12" t="s">
-        <v>82</v>
-      </c>
-      <c r="H12" t="s">
-        <v>82</v>
-      </c>
-      <c r="I12" t="s">
-        <v>82</v>
-      </c>
-      <c r="J12" t="s">
-        <v>82</v>
-      </c>
-      <c r="K12" t="s">
-        <v>82</v>
-      </c>
-      <c r="L12" t="s">
-        <v>82</v>
-      </c>
+      <c r="E12" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="E13" t="s">
-        <v>82</v>
-      </c>
-      <c r="F13" t="s">
-        <v>82</v>
-      </c>
-      <c r="G13" t="s">
-        <v>82</v>
-      </c>
-      <c r="H13" t="s">
-        <v>82</v>
-      </c>
-      <c r="I13" t="s">
-        <v>82</v>
-      </c>
-      <c r="J13" t="s">
-        <v>82</v>
-      </c>
-      <c r="K13" t="s">
-        <v>82</v>
-      </c>
-      <c r="L13" t="s">
-        <v>82</v>
-      </c>
+      <c r="E13" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="E14" t="s">
-        <v>82</v>
-      </c>
-      <c r="F14" t="s">
-        <v>82</v>
-      </c>
-      <c r="G14" t="s">
-        <v>82</v>
-      </c>
-      <c r="H14" t="s">
-        <v>82</v>
-      </c>
-      <c r="I14" t="s">
-        <v>82</v>
-      </c>
-      <c r="J14" t="s">
-        <v>82</v>
-      </c>
-      <c r="K14" t="s">
-        <v>82</v>
-      </c>
-      <c r="L14" t="s">
-        <v>82</v>
-      </c>
+      <c r="E14" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="E15" t="s">
-        <v>82</v>
-      </c>
-      <c r="F15" t="s">
-        <v>82</v>
-      </c>
-      <c r="G15" t="s">
-        <v>82</v>
-      </c>
-      <c r="H15" t="s">
-        <v>82</v>
-      </c>
-      <c r="I15" t="s">
-        <v>82</v>
-      </c>
-      <c r="J15" t="s">
-        <v>82</v>
-      </c>
-      <c r="K15" t="s">
-        <v>82</v>
-      </c>
-      <c r="L15" t="s">
-        <v>82</v>
-      </c>
+      <c r="E15" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="E16" t="s">
-        <v>82</v>
-      </c>
-      <c r="F16" t="s">
-        <v>82</v>
-      </c>
-      <c r="G16" t="s">
-        <v>82</v>
-      </c>
-      <c r="H16" t="s">
-        <v>82</v>
-      </c>
-      <c r="I16" t="s">
-        <v>82</v>
-      </c>
-      <c r="J16" t="s">
-        <v>82</v>
-      </c>
-      <c r="K16" t="s">
-        <v>82</v>
-      </c>
-      <c r="L16" t="s">
-        <v>82</v>
-      </c>
+      <c r="E16" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/templates/4COM04_GenomeAssembly/4COM04_GenomeAssembly.xlsx
+++ b/templates/4COM04_GenomeAssembly/4COM04_GenomeAssembly.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\omaus\SWATE_templates\templates\4COM04_GenomeAssembly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D420047-162D-46BB-97F5-E88D35002BEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33EA350A-ED88-480A-A3C1-66A3E36FCCEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -301,9 +301,6 @@
     <t>Oliver</t>
   </si>
   <si>
-    <t>1.1.3</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -497,6 +494,9 @@
   <si>
     <t xml:space="preserve">Each genome must be in 1 or 2 files. You can concatenate multiple fasta files into a single file that can be submitted or used as input for tbl2asn.
 </t>
+  </si>
+  <si>
+    <t>1.1.4</t>
   </si>
 </sst>
 </file>
@@ -1034,12 +1034,25 @@
   <wetp:taskpane dockstate="right" visibility="0" width="350" row="0">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
+  <wetp:taskpane dockstate="right" visibility="0" width="656" row="2">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+  </wetp:taskpane>
 </wetp:taskpanes>
 </file>
 
 <file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
 <we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{47786F02-A442-4875-801D-165DE537472E}">
   <we:reference id="5d6f5462-3401-48ec-9406-d12882e9ad83" version="0.4.7.0" store="developer" storeType="Registry"/>
+  <we:alternateReferences/>
+  <we:properties/>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</we:webextension>
+</file>
+
+<file path=xl/webextensions/webextension2.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{42BC1B30-2602-4BFC-8F35-C62BCF48707D}">
+  <we:reference id="5d6f5462-3401-48ec-9406-d12882e9ad84" version="0.5.1.0" store="\\DT-P-2020-04-OM\swate_manifests" storeType="Filesystem"/>
   <we:alternateReferences/>
   <we:properties/>
   <we:bindings/>
@@ -1252,7 +1265,7 @@
         <v>40</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>81</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1492,40 +1505,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="C1" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="D1" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="H1" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="I1" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="J1" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="K1" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="L1" s="11" t="s">
         <v>92</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -1533,19 +1546,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
@@ -1556,31 +1569,31 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G3" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="H3" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="I3" s="12" t="s">
         <v>125</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>126</v>
       </c>
       <c r="J3" s="12"/>
       <c r="K3" s="12"/>
@@ -1591,28 +1604,28 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="D4" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>97</v>
-      </c>
       <c r="E4" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G4" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="H4" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="H4" s="12" t="s">
-        <v>128</v>
-      </c>
       <c r="I4" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
@@ -1623,24 +1636,24 @@
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>99</v>
-      </c>
       <c r="E5" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
       <c r="I5" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J5" s="12"/>
       <c r="K5" s="12"/>
@@ -1651,24 +1664,24 @@
         <v>7</v>
       </c>
       <c r="B6" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>101</v>
-      </c>
       <c r="E6" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
       <c r="I6" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
@@ -1679,24 +1692,24 @@
         <v>10</v>
       </c>
       <c r="B7" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>103</v>
-      </c>
       <c r="E7" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
       <c r="I7" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>
@@ -1707,28 +1720,28 @@
         <v>13</v>
       </c>
       <c r="B8" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>105</v>
-      </c>
       <c r="E8" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G8" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="H8" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="I8" s="12" t="s">
         <v>131</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>132</v>
       </c>
       <c r="J8" s="12"/>
       <c r="K8" s="12"/>
@@ -1739,28 +1752,28 @@
         <v>16</v>
       </c>
       <c r="B9" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="D9" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="D9" s="12" t="s">
-        <v>108</v>
-      </c>
       <c r="E9" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G9" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="H9" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="H9" s="12" t="s">
-        <v>134</v>
-      </c>
       <c r="I9" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="12"/>
@@ -1771,28 +1784,28 @@
         <v>19</v>
       </c>
       <c r="B10" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>110</v>
-      </c>
       <c r="E10" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G10" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="H10" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="H10" s="12" t="s">
-        <v>136</v>
-      </c>
       <c r="I10" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J10" s="12"/>
       <c r="K10" s="12"/>
@@ -1803,28 +1816,28 @@
         <v>22</v>
       </c>
       <c r="B11" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D11" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>112</v>
-      </c>
       <c r="E11" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G11" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="H11" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="I11" s="12" t="s">
         <v>138</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>139</v>
       </c>
       <c r="J11" s="12"/>
       <c r="K11" s="12"/>
@@ -1835,28 +1848,28 @@
         <v>25</v>
       </c>
       <c r="B12" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D12" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="C12" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>114</v>
-      </c>
       <c r="E12" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G12" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="H12" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="H12" s="12" t="s">
-        <v>141</v>
-      </c>
       <c r="I12" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J12" s="12"/>
       <c r="K12" s="12"/>
@@ -1867,19 +1880,19 @@
         <v>28</v>
       </c>
       <c r="B13" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="C13" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>116</v>
-      </c>
       <c r="E13" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
@@ -1893,28 +1906,28 @@
         <v>31</v>
       </c>
       <c r="B14" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="C14" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>118</v>
-      </c>
       <c r="E14" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G14" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="H14" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="H14" s="12" t="s">
-        <v>143</v>
-      </c>
       <c r="I14" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
@@ -1922,31 +1935,31 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B15" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="C15" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="C15" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>121</v>
-      </c>
       <c r="E15" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G15" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="H15" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="H15" s="12" t="s">
-        <v>145</v>
-      </c>
       <c r="I15" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J15" s="12"/>
       <c r="K15" s="12"/>
@@ -1957,24 +1970,24 @@
         <v>34</v>
       </c>
       <c r="B16" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="C16" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>123</v>
-      </c>
       <c r="E16" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
       <c r="I16" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>

--- a/templates/4COM04_GenomeAssembly/4COM04_GenomeAssembly.xlsx
+++ b/templates/4COM04_GenomeAssembly/4COM04_GenomeAssembly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\omaus\SWATE_templates\templates\4COM04_GenomeAssembly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33EA350A-ED88-480A-A3C1-66A3E36FCCEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39DC5115-24BC-423B-BBD8-22F66208BA71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="4COM04_GenomeAssembly" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="148">
   <si>
     <t>Source Name</t>
   </si>
@@ -496,7 +496,13 @@
 </t>
   </si>
   <si>
-    <t>1.1.4</t>
+    <t>Illumina Genome Analyzer IIx</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NFDI4PSO_1000038</t>
+  </si>
+  <si>
+    <t>1.1.5</t>
   </si>
 </sst>
 </file>
@@ -1031,7 +1037,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="350" row="0">
+  <wetp:taskpane dockstate="right" visibility="0" width="659" row="2">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
   <wetp:taskpane dockstate="right" visibility="0" width="656" row="2">
@@ -1062,9 +1068,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL1"/>
+  <dimension ref="A1:AL2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1083,7 +1089,7 @@
     <col min="13" max="13" width="43.7109375" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="57" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="43.7109375" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="46.5703125" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="41.42578125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="30.85546875" hidden="1" customWidth="1"/>
     <col min="19" max="19" width="37.85546875" hidden="1" customWidth="1"/>
@@ -1224,6 +1230,17 @@
         <v>37</v>
       </c>
     </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="N2" t="s">
+        <v>145</v>
+      </c>
+      <c r="O2" t="s">
+        <v>95</v>
+      </c>
+      <c r="P2" t="s">
+        <v>146</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -1236,7 +1253,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2198836-D18B-4D0A-A514-00A7EC4AFC3D}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1265,7 +1282,7 @@
         <v>40</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
